--- a/数字（すうじ）.xlsx
+++ b/数字（すうじ）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF415A51-AF8D-47E6-B352-C41E902A7603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9681EFD4-1C8B-4D89-969E-7108A541C32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7332" yWindow="2328" windowWidth="11652" windowHeight="8964" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -39,60 +39,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="266">
-  <si>
-    <t>いち</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>に</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>よ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>い</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="268">
   <si>
     <t>っつ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ろく</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>きゅう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一っつ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二っつ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四つ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>いっつ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>八王子市｜はちおうじし</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>九っつ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>今日｜きょう</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,46 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>十っつ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>いちだいめ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>にだいめ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>さんだいめ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>よだいめ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>いだいめ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ろくだいめ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ななだいめ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>はちだいめ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>じゅうだいめ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>だいめ（代目）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,10 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>きゅうだいめ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>じゅうこ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,10 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>なな、はち、しち</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>かい（階)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -213,18 +121,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>むっつ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>かい（回）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>さん、み</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三つ（みっつ）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -266,18 +166,6 @@
   </si>
   <si>
     <t>ごにん</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>じゅう、とお</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>八っつ（やっつ）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>はち、や</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1120,12 +1008,198 @@
     <t>（数量很多）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>一つ（ひとつ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二つ（ふたつ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四つ（よっつ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五つ（いつつ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六つ（むっつ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八つ（やっつ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九つ（ここのつ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十っつ（とおっつ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一月（いちげつ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>二月（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>がつ）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>三月（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>さん</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>がつ）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>四月（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>し</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>がつ）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五月（ごがつ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六月（むいがつ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七月（しちがつ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八月（はちがつ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九月（きゅうがつ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十月（じゅうがつ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一日（ついたち）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七日（なのか）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二日（ふつか）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三日（みっか）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四日（よっか）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五日（いつか）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六日（むいか）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八日（ようか）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九日（ここのか）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十日（とおか）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1169,6 +1243,27 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1190,13 +1285,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1487,42 +1585,42 @@
   <sheetData>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1552,573 +1650,573 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="J1" s="1" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="P4" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="H10" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="H23" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2142,54 +2240,54 @@
   <sheetData>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2200,16 +2298,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -2218,331 +2318,367 @@
     <col min="12" max="16" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>0</v>
+    </row>
+    <row r="2" spans="1:18" ht="18" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="18" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:18" ht="18" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="18" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="18" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="18" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="18" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
+    </row>
+    <row r="11" spans="1:18" ht="18" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="C29" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/数字（すうじ）.xlsx
+++ b/数字（すうじ）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9681EFD4-1C8B-4D89-969E-7108A541C32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7237F458-DF79-42EC-8F69-23ED473CC281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6756" yWindow="1368" windowWidth="17280" windowHeight="10020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="272">
   <si>
     <t>っつ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1193,6 +1193,40 @@
   <si>
     <t>十日（とおか）</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">片方 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かたほう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>两个中的一个）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「お年寄りのための靴」を片方でも買えるようにした</t>
   </si>
 </sst>
 </file>
@@ -2298,10 +2332,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E10"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2568,7 +2602,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>53</v>
       </c>
@@ -2576,7 +2610,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>49</v>
       </c>
@@ -2584,7 +2618,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
@@ -2592,7 +2626,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>71</v>
       </c>
@@ -2600,7 +2634,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>73</v>
       </c>
@@ -2608,7 +2642,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>117</v>
       </c>
@@ -2616,7 +2650,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>183</v>
       </c>
@@ -2624,7 +2658,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>141</v>
       </c>
@@ -2635,7 +2669,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>193</v>
       </c>
@@ -2643,7 +2677,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
         <v>196</v>
       </c>
@@ -2651,7 +2685,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>199</v>
       </c>
@@ -2662,22 +2696,36 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
+    <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A30" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D30" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>237</v>
       </c>
     </row>

--- a/数字（すうじ）.xlsx
+++ b/数字（すうじ）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7237F458-DF79-42EC-8F69-23ED473CC281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72126ADA-4C37-43E2-9B90-1EE1A361EA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6756" yWindow="1368" windowWidth="17280" windowHeight="10020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="274">
   <si>
     <t>っつ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1227,6 +1227,14 @@
   </si>
   <si>
     <t>「お年寄りのための靴」を片方でも買えるようにした</t>
+  </si>
+  <si>
+    <t>下がる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さがる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1665,10 +1673,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2552A2-D61E-4FE6-B18F-3BD3EB12E66D}">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1832,6 +1840,8 @@
       <c r="C6" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
       <c r="J6" s="1" t="s">
         <v>131</v>
       </c>
@@ -1855,15 +1865,8 @@
       <c r="C7" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" t="s">
-        <v>62</v>
-      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
       <c r="J7" s="1" t="s">
         <v>133</v>
       </c>
@@ -1882,13 +1885,13 @@
         <v>99</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>119</v>
+        <v>272</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>137</v>
+        <v>273</v>
+      </c>
+      <c r="H8" t="s">
+        <v>62</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>106</v>
@@ -1908,10 +1911,13 @@
         <v>99</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>124</v>
+        <v>61</v>
+      </c>
+      <c r="H9" t="s">
+        <v>62</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>197</v>
@@ -1931,13 +1937,13 @@
         <v>207</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" t="s">
-        <v>70</v>
+        <v>136</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>214</v>
@@ -1953,6 +1959,12 @@
       <c r="B11" s="1" t="s">
         <v>146</v>
       </c>
+      <c r="F11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="12" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
@@ -1965,10 +1977,13 @@
         <v>34</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>147</v>
+        <v>68</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>148</v>
+        <v>69</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -1981,12 +1996,6 @@
       <c r="C13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>143</v>
-      </c>
     </row>
     <row r="14" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
@@ -1998,15 +2007,6 @@
       <c r="C14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="15" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
@@ -2019,10 +2019,10 @@
         <v>34</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -2036,10 +2036,10 @@
         <v>94</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.45">
@@ -2052,8 +2052,15 @@
       <c r="C17" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
@@ -2066,13 +2073,10 @@
         <v>34</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>230</v>
+        <v>101</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>232</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.45">
@@ -2086,10 +2090,10 @@
         <v>169</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.45">
@@ -2102,12 +2106,8 @@
       <c r="C20" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
@@ -2120,10 +2120,13 @@
         <v>34</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>77</v>
+        <v>231</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.45">
@@ -2137,10 +2140,10 @@
         <v>34</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.45">
@@ -2154,13 +2157,10 @@
         <v>99</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H23" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.45">
@@ -2173,11 +2173,11 @@
       <c r="C24" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>213</v>
+      <c r="F24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.45">
@@ -2190,6 +2190,12 @@
       <c r="C25" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="F25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
@@ -2202,13 +2208,16 @@
         <v>206</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>220</v>
+        <v>128</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+      <c r="H26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>209</v>
       </c>
@@ -2218,11 +2227,11 @@
       <c r="C27" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>223</v>
+      <c r="F27" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.45">
@@ -2232,12 +2241,6 @@
       <c r="B28" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>225</v>
-      </c>
     </row>
     <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
@@ -2247,9 +2250,33 @@
         <v>229</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="F30" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="F31" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="F32" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>227</v>
       </c>
     </row>
@@ -2334,7 +2361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>

--- a/数字（すうじ）.xlsx
+++ b/数字（すうじ）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72126ADA-4C37-43E2-9B90-1EE1A361EA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B4E2FA-DA49-408D-BFEB-4E4D365480C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="276">
   <si>
     <t>っつ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1234,6 +1234,14 @@
   </si>
   <si>
     <t>さがる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いちぶ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1673,10 +1681,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2552A2-D61E-4FE6-B18F-3BD3EB12E66D}">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G31" sqref="E15:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2278,6 +2286,14 @@
       </c>
       <c r="G32" s="1" t="s">
         <v>227</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="F33" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -2361,8 +2377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/数字（すうじ）.xlsx
+++ b/数字（すうじ）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B4E2FA-DA49-408D-BFEB-4E4D365480C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE1F3C1-7C77-42B5-B89F-1FAAADD7141F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="282">
   <si>
     <t>っつ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1242,6 +1242,30 @@
   </si>
   <si>
     <t>いちぶ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とっぱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不完全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふかんぜ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>げんかい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1681,10 +1705,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2552A2-D61E-4FE6-B18F-3BD3EB12E66D}">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G31" sqref="E15:G31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2114,8 +2138,12 @@
       <c r="C20" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
@@ -2127,15 +2155,8 @@
       <c r="C21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>232</v>
-      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
@@ -2148,10 +2169,13 @@
         <v>34</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>105</v>
+        <v>230</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>104</v>
+        <v>231</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.45">
@@ -2165,10 +2189,10 @@
         <v>99</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.45">
@@ -2182,10 +2206,10 @@
         <v>190</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.45">
@@ -2199,10 +2223,10 @@
         <v>34</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.45">
@@ -2216,16 +2240,13 @@
         <v>206</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H26" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
         <v>209</v>
       </c>
@@ -2235,11 +2256,14 @@
       <c r="C27" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>213</v>
+      <c r="F27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H27" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.45">
@@ -2249,6 +2273,12 @@
       <c r="B28" s="1" t="s">
         <v>219</v>
       </c>
+      <c r="F28" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
@@ -2257,42 +2287,50 @@
       <c r="B29" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F29" s="1" t="s">
+    </row>
+    <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="F30" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="F31" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="F32" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="6:7" ht="18" x14ac:dyDescent="0.45">
       <c r="F33" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="F34" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>275</v>
       </c>
     </row>
@@ -2375,10 +2413,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2753,22 +2791,31 @@
         <v>271</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>217</v>
-      </c>
+    <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C31" s="3"/>
     </row>
     <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>237</v>
       </c>
     </row>

--- a/数字（すうじ）.xlsx
+++ b/数字（すうじ）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE1F3C1-7C77-42B5-B89F-1FAAADD7141F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3EE64B-83A2-4AA1-8165-F28A8BA19292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="284">
   <si>
     <t>っつ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1266,6 +1266,14 @@
   </si>
   <si>
     <t>げんかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桁違い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けたちがい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1707,8 +1715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2552A2-D61E-4FE6-B18F-3BD3EB12E66D}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1996,6 +2004,12 @@
       </c>
       <c r="G11" s="1" t="s">
         <v>124</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="18" x14ac:dyDescent="0.45">
